--- a/biology/Médecine/Felice_Bisleri/Felice_Bisleri.xlsx
+++ b/biology/Médecine/Felice_Bisleri/Felice_Bisleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felice Bisleri (né le 30 novembre 1851 à Gerolanuova, dans l'actuelle province de Brescia, en Lombardie, alors dans le royaume lombard-vénitien et mort le 17 septembre 1921 San Pellegrino Terme)  est un pharmacien et un patriote italien.
 Il est surtout connu comme l'inventeur d'une boisson médicinale appelée le Ferro-China.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été blessé lors de la bataille de Bezzecca, Felice Bisleri exerce divers métiers, puis il crée à Milan un laboratoire de chimie spécialisé dans la production de boissons, principalement, à base de quinine et de sels de fer.
 Sa principale marque est un amer nommé le Ferro-China Bisleri et il perfectionne l'esanofele, un médicament, aussi, à base de quinine, d'arsenic et de fer, destiné à lutter contre le paludisme. Il est également le fondateur de l'entreprise  Acqua minerale Nocera Umbra.
@@ -544,7 +558,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Médaille d'argent de la valeur militaire (it) pour s'être distingué à la bataille de Bezzecca du 21 juillet 1866.
 </t>
@@ -575,7 +591,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en italien intitulé « Felice Bisleri » (voir la liste des auteurs).</t>
         </is>
